--- a/code_names.xlsx
+++ b/code_names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamed\Desktop\Hamed\Github\TP7\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamed\Desktop\Hamed\Github\TP7\public_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F25DF6-111B-4705-8CC7-C51FC093DD60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B48C517-4349-43FD-AC74-83A7DA040514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="2736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>notebooks</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Thise noebook estimates the error  of bayesian decoder. (Figure 1)</t>
+  </si>
+  <si>
+    <t>Read_and_Cluster_sleep_and_arena.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To exclusively save data of sleep, areana, or all data. </t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +529,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
